--- a/database/industries/kashi/kesave/cost/yearly.xlsx
+++ b/database/industries/kashi/kesave/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0C537D-0A1A-4819-9AB6-37D7A5DBDC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1109CD-95F6-4798-AAC7-223B9D4EC8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -662,12 +662,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -677,7 +677,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -711,7 +711,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -745,7 +745,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -767,7 +767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -777,7 +777,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -799,7 +799,7 @@
         <v>3230859</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -821,7 +821,7 @@
         <v>662159</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -843,7 +843,7 @@
         <v>2102293</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -865,7 +865,7 @@
         <v>5995311</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -909,7 +909,7 @@
         <v>5995311</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -931,7 +931,7 @@
         <v>-7156</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -975,7 +975,7 @@
         <v>5988155</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -997,7 +997,7 @@
         <v>136299</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>-326406</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>5798048</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>16390</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>5814438</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1095,7 +1095,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1105,7 +1105,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1115,7 +1115,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1147,7 +1147,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>303695</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>2185080</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>37642402</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>3952888</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>58992</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>32</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>101627</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>12</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>44244684</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1345,7 +1345,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1355,7 +1355,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1365,7 +1365,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>35</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1397,7 +1397,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>24</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>341298</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>27</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>5895797</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>28</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>246835000</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>29</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>8966765</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>31</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>37682</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>32</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>34</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>12030880</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>12</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>274107422</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1595,7 +1595,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1605,7 +1605,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1615,7 +1615,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>37</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1647,7 +1647,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>24</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>451245</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>27</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>6157397</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>28</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>223679877</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>29</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>8324587</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>31</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>40668</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>32</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>34</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>1050965</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>12</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>239704739</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1845,7 +1845,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1855,7 +1855,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1865,7 +1865,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>38</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1897,7 +1897,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>24</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>193748</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>27</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>1923480</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>28</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>60797525</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>29</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>4595066</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>31</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>56006</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>32</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>34</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>11081542</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>12</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>78647367</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2095,7 +2095,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2105,7 +2105,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2115,7 +2115,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>39</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2147,7 +2147,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>24</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>90496</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>27</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>338836</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>28</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>73563</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>29</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>154802</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>31</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>94943</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>32</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>34</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>282421</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>12</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>1035061</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2347,7 +2347,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2357,7 +2357,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2367,7 +2367,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>40</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2399,7 +2399,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>24</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>132156</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>27</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>1243268</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>28</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>535070</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>29</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>547013</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>31</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>156837</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>32</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>34</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>976012</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>12</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>3590356</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2599,7 +2599,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2609,7 +2609,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2619,7 +2619,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>41</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2651,7 +2651,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>24</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>154230</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>27</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>1165710</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>28</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>484815</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>29</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>448486</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>31</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>118549</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>32</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>34</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>859069</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>12</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>3230859</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2851,7 +2851,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2861,7 +2861,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2871,7 +2871,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>42</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2903,7 +2903,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>24</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>68422</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>27</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>416394</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>28</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>123818</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>29</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>253329</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>31</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>133231</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>32</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>34</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>399364</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>12</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>1394558</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3103,7 +3103,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3113,7 +3113,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3123,7 +3123,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>43</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3155,7 +3155,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>24</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>297983</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>27</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>155068</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>28</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>29</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>39162</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>31</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>1609422</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>34</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>2778996</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3309,7 +3309,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3319,7 +3319,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3329,7 +3329,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
         <v>47</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3361,7 +3361,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>24</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>387216</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>27</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>210874</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>28</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>29</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>61005</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>31</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>4162120</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>34</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>81126</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3515,7 +3515,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3525,7 +3525,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3535,7 +3535,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>48</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3567,7 +3567,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>24</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>341788</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>27</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>189319</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>28</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>29</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>53875</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>31</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>2915044</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>34</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>817410</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3721,7 +3721,7 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3731,7 +3731,7 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3741,7 +3741,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B164" s="7" t="s">
         <v>49</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3773,7 +3773,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="8" t="s">
         <v>24</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>353149</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="10" t="s">
         <v>27</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>216480</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
         <v>28</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>29</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>55131</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>31</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>2378870</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="s">
         <v>34</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>36039</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -3925,7 +3925,7 @@
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -3935,7 +3935,7 @@
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -3945,7 +3945,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B175" s="7" t="s">
         <v>50</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -3977,7 +3977,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>51</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>52</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>53</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>54</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>55</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>297652</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>56</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>260831</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>57</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>132788</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>58</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>498708</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>59</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>60</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>912314</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="14" t="s">
         <v>12</v>
       </c>
